--- a/VISE_app/static/assets/SearchingCards/SearchingCardSample.xlsx
+++ b/VISE_app/static/assets/SearchingCards/SearchingCardSample.xlsx
@@ -20,24 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t xml:space="preserve">Package</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software Type</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">Product Name</t>
   </si>
   <si>
+    <t xml:space="preserve">Version Number</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vendor Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Platform</t>
+    <t xml:space="preserve">Target Software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Type</t>
   </si>
 </sst>
 </file>
@@ -148,12 +145,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -219,27 +216,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="35.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="8" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -258,17 +252,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
